--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N2">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q2">
-        <v>0.2718226398524444</v>
+        <v>0.3687064894062222</v>
       </c>
       <c r="R2">
-        <v>2.446403758672</v>
+        <v>3.318358404656</v>
       </c>
       <c r="S2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="T2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q3">
         <v>0.3741523822559999</v>
@@ -635,10 +635,10 @@
         <v>3.367371440304</v>
       </c>
       <c r="S3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="T3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N4">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q4">
-        <v>0.2157258557155556</v>
+        <v>0.2794921760266666</v>
       </c>
       <c r="R4">
-        <v>1.94153270144</v>
+        <v>2.51542958424</v>
       </c>
       <c r="S4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="T4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N5">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q5">
-        <v>0.3068149731573334</v>
+        <v>0.7144002109759999</v>
       </c>
       <c r="R5">
-        <v>2.761334758416</v>
+        <v>6.429601898784</v>
       </c>
       <c r="S5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="T5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
     </row>
   </sheetData>
